--- a/mardown/estudio_rrss_ibai_trasladado.xlsx
+++ b/mardown/estudio_rrss_ibai_trasladado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\GitHub\socialdata\mardown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E5F98F-394A-4430-803F-B7FB0A9A622F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE84FF95-1C42-4780-A15E-373467EAB370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="1" xr2:uid="{A0ABD409-E100-4CCD-B83F-501A62D99F35}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="2" xr2:uid="{A0ABD409-E100-4CCD-B83F-501A62D99F35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2311,7 +2311,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2334,11 +2334,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2395,11 +2491,148 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2410,6 +2643,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7B7A2F1-B852-45CF-A30E-E9EAD63AA03E}" name="Tabla1" displayName="Tabla1" ref="A3:C13" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A3:C13" xr:uid="{E7B7A2F1-B852-45CF-A30E-E9EAD63AA03E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F7B26ECF-0857-4B43-A8D4-2EAC48C1ECEE}" name="Categoría" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{86670E48-F8FC-42CF-9A2F-F373804D5C93}" name="Dato" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{5A62ADFE-F5B7-495C-8459-19200FEC9E17}" name="Variación" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4011,7 +4256,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>71</v>
       </c>
@@ -4110,7 +4355,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>80</v>
       </c>
@@ -4132,7 +4377,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
@@ -4374,7 +4619,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>80</v>
       </c>
@@ -4402,7 +4647,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
         <v>85</v>
       </c>
@@ -4494,7 +4739,7 @@
     <row r="98" spans="2:4" ht="15" x14ac:dyDescent="0.35">
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
         <v>0</v>
       </c>
@@ -4659,7 +4904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B114" s="2" t="s">
         <v>113</v>
       </c>
@@ -4718,7 +4963,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B123" s="2" t="s">
         <v>120</v>
       </c>
@@ -4726,7 +4971,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B124" s="2" t="s">
         <v>121</v>
       </c>
@@ -4734,7 +4979,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B125" s="2" t="s">
         <v>122</v>
       </c>
@@ -4742,7 +4987,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B126" s="2" t="s">
         <v>123</v>
       </c>
@@ -5019,7 +5264,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="156" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B156" s="2" t="s">
         <v>80</v>
       </c>
@@ -5041,7 +5286,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="158" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B158" s="2" t="s">
         <v>85</v>
       </c>
@@ -5115,7 +5360,7 @@
     <row r="166" spans="2:13" ht="15" x14ac:dyDescent="0.35">
       <c r="B166" s="7"/>
     </row>
-    <row r="167" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B167" s="1" t="s">
         <v>0</v>
       </c>
@@ -6157,7 +6402,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="232" spans="2:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B232" s="2" t="s">
         <v>10</v>
       </c>
@@ -6168,7 +6413,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="233" spans="2:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B233" s="2" t="s">
         <v>3</v>
       </c>
@@ -6209,7 +6454,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="239" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B239" s="2" t="s">
         <v>185</v>
       </c>
@@ -6220,7 +6465,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="240" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B240" s="2" t="s">
         <v>187</v>
       </c>
@@ -6231,7 +6476,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="241" spans="2:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B241" s="2" t="s">
         <v>189</v>
       </c>
@@ -6242,7 +6487,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B242" s="2" t="s">
         <v>191</v>
       </c>
@@ -6253,7 +6498,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="243" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B243" s="2" t="s">
         <v>193</v>
       </c>
@@ -6264,7 +6509,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="244" spans="2:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B244" s="2" t="s">
         <v>196</v>
       </c>
@@ -6275,7 +6520,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="245" spans="2:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B245" s="2" t="s">
         <v>198</v>
       </c>
@@ -6294,7 +6539,7 @@
     <row r="248" spans="2:5" ht="15" x14ac:dyDescent="0.35">
       <c r="B248" s="7"/>
     </row>
-    <row r="249" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B249" s="1" t="s">
         <v>0</v>
       </c>
@@ -6400,7 +6645,7 @@
     <row r="258" spans="2:5" ht="15" x14ac:dyDescent="0.35">
       <c r="B258" s="7"/>
     </row>
-    <row r="259" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B259" s="1" t="s">
         <v>0</v>
       </c>
@@ -6584,7 +6829,7 @@
     <row r="276" spans="2:5" ht="15" x14ac:dyDescent="0.35">
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B277" s="1" t="s">
         <v>225</v>
       </c>
@@ -6839,7 +7084,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="299" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B299" s="2" t="s">
         <v>252</v>
       </c>
@@ -6850,7 +7095,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="300" spans="2:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B300" s="2" t="s">
         <v>254</v>
       </c>
@@ -6861,7 +7106,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="301" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B301" s="2" t="s">
         <v>256</v>
       </c>
@@ -6872,7 +7117,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="302" spans="2:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B302" s="2" t="s">
         <v>259</v>
       </c>
@@ -6883,7 +7128,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="303" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B303" s="2" t="s">
         <v>261</v>
       </c>
@@ -6913,7 +7158,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="308" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B308" s="2" t="s">
         <v>265</v>
       </c>
@@ -6924,7 +7169,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="309" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B309" s="2" t="s">
         <v>267</v>
       </c>
@@ -6965,7 +7210,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="315" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B315" s="2" t="s">
         <v>272</v>
       </c>
@@ -6976,7 +7221,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="316" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B316" s="2" t="s">
         <v>275</v>
       </c>
@@ -6987,7 +7232,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="317" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B317" s="2" t="s">
         <v>277</v>
       </c>
@@ -12208,11 +12453,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7583E0B-FE3C-45D1-BAA8-14CF3353BAAC}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
@@ -12223,124 +12468,124 @@
       <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="24" t="s">
         <v>614</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="24" t="s">
         <v>618</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="16">
         <v>0.84</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="24" t="s">
         <v>621</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="16">
         <v>0.92</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="24" t="s">
         <v>622</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="25" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="25" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="30" t="s">
         <v>628</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="31" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12351,6 +12596,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -13525,11 +13773,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325C79E0-E827-4361-A540-7CDFD59E12F6}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.77734375" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
